--- a/SCWeb/Upload/基础资料导入模板.xlsx
+++ b/SCWeb/Upload/基础资料导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>款号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,7 +590,7 @@
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,8 +669,11 @@
       <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
